--- a/gd/技能逻辑/怪物大招Icon需求.xlsx
+++ b/gd/技能逻辑/怪物大招Icon需求.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="1024">
   <si>
     <t>光</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2524,10 +2524,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>icon_ultMoguguai4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bossxiaoxiang21Wushi44</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3541,10 +3537,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三连斩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>喷火</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3553,10 +3545,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>攻击敌方单体，造成3次xx%法攻火法术伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>攻击敌方群体，造成xx%法攻火法术伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3635,13 +3623,299 @@
   <si>
     <t>其他</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击敌方单体，造成xx%法攻火法术伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossshiliantaIfrit46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给自身提升XXX%力量，持续99回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火伊芙利特（试练塔）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossdajie11Moguguai41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰重击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰旋风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火磷粉</t>
+  </si>
+  <si>
+    <t>bossdajie11Moguguai42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_bossdajie11Moguguai42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossdajie11Moguguai43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_ultMoguguai4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_ultMoguguai4（复用火蘑菇怪大招）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击敌方单体，造成xx%法攻火法术伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击敌方群体，造成xx%法攻火法术伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击敌方群体，造成xx%法攻火法术伤害</t>
+  </si>
+  <si>
+    <t>火蘑菇怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossdajie13Cike41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossdajie13Cike42</t>
+  </si>
+  <si>
+    <t>bossdajie13Cike44</t>
+  </si>
+  <si>
+    <t>火焰爪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龟甲防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒气爆发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反伤护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击敌方单体，造成2次xx%物攻火物理伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>提升自身XX%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>防御力，持续</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3回合</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击敌方群体，造成xx%物攻火物理伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被物理或法术攻击时反弹XX%物攻火物理伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火刺壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_buffDefense（复用防御提升）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_attackFireMedium（复用火物中）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_bosssenlin36Momo14（复用momoboss图标）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossdajie13Cike43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_bossdajie13Cike43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossdajie18Ladong51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙卷风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙之吐息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击敌方单体，造成xx%法攻暗法术伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击敌方群体，造成xx%法攻暗法术伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>攻击敌方群体，造成xx%法攻暗法术纯伤害并附加一个暗属性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dot</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉冬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_magicEarthStrong（复用暗法强）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossdajie18Ladong54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossdajie18Ladong52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_bossdajie18Ladong52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_bossdajie18Ladong54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吹雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吐息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bosschaoxue58Yimier41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bosschaoxue58Yimier43</t>
+  </si>
+  <si>
+    <t>bosschaoxue58Yimier44</t>
+  </si>
+  <si>
+    <t>攻击敌方单体，造成XX%法攻水属性伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击敌方群体，造成XX%法攻水属性伤害；若目标存在吹雪技能添加的stun buff则造成大伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击敌方群体，造成XX%法攻水属性伤害并概率附加效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使敌方单体眩晕2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊米尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bosschaoxue58Yimier42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_bosschaoxue58Yimier42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_bosschaoxue58Yimier43</t>
+  </si>
+  <si>
+    <t>icon_bosschaoxue58Yimier44</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3717,6 +3991,12 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -3770,7 +4050,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3866,16 +4146,31 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4162,8 +4457,8 @@
   <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K82" sqref="K82"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B85" sqref="B85:B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -4204,240 +4499,240 @@
         <v>4</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="D2" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="D2" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="34" t="s">
         <v>308</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="34" t="s">
         <v>309</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="34" t="s">
         <v>310</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="35"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="34"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="34" t="s">
         <v>311</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="34" t="s">
         <v>261</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35" t="s">
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4445,221 +4740,221 @@
       <c r="A19" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="34" t="s">
         <v>312</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="34" t="s">
         <v>322</v>
       </c>
-      <c r="D22" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
+      <c r="D22" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="34" t="s">
         <v>313</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="34" t="s">
         <v>323</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="34" t="s">
         <v>314</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="34" t="s">
         <v>324</v>
       </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="34" t="s">
         <v>315</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="H31" s="35"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="34"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="34" t="s">
         <v>316</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="34" t="s">
         <v>326</v>
       </c>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35" t="s">
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4667,209 +4962,209 @@
       <c r="A35" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="34" t="s">
         <v>317</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="34" t="s">
         <v>327</v>
       </c>
-      <c r="D37" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
+      <c r="D37" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="34" t="s">
         <v>318</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="34" t="s">
         <v>328</v>
       </c>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="34" t="s">
         <v>319</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="34" t="s">
         <v>329</v>
       </c>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="34" t="s">
         <v>320</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="34" t="s">
         <v>330</v>
       </c>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="H46" s="35"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" s="34"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="34" t="s">
         <v>321</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="34" t="s">
         <v>331</v>
       </c>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35" t="s">
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4877,209 +5172,209 @@
       <c r="A50" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="34" t="s">
         <v>338</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="34" t="s">
         <v>333</v>
       </c>
-      <c r="D52" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
+      <c r="D52" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="B53" s="35"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="B55" s="35" t="s">
+      <c r="B55" s="34" t="s">
         <v>636</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="C55" s="34" t="s">
         <v>635</v>
       </c>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B57" s="35"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B58" s="35" t="s">
+      <c r="B58" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="C58" s="35" t="s">
+      <c r="C58" s="34" t="s">
         <v>339</v>
       </c>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="B60" s="35"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="B61" s="35" t="s">
+      <c r="B61" s="34" t="s">
         <v>350</v>
       </c>
-      <c r="C61" s="35" t="s">
+      <c r="C61" s="34" t="s">
         <v>340</v>
       </c>
-      <c r="D61" s="35"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="H61" s="35"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H61" s="34"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="B62" s="35"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="B63" s="35"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="35"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="B64" s="35" t="s">
+      <c r="B64" s="34" t="s">
         <v>354</v>
       </c>
-      <c r="C64" s="35" t="s">
+      <c r="C64" s="34" t="s">
         <v>341</v>
       </c>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35" t="s">
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="34" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5087,161 +5382,161 @@
       <c r="A65" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="B65" s="35"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="35"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="34"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="B66" s="35"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="B67" s="35" t="s">
+      <c r="B67" s="34" t="s">
         <v>358</v>
       </c>
-      <c r="C67" s="35" t="s">
+      <c r="C67" s="34" t="s">
         <v>381</v>
       </c>
-      <c r="D67" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35"/>
+      <c r="D67" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="34"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="B68" s="35"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="35"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="34"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="B69" s="35" t="s">
+      <c r="B69" s="34" t="s">
         <v>361</v>
       </c>
-      <c r="C69" s="35" t="s">
+      <c r="C69" s="34" t="s">
         <v>382</v>
       </c>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="35"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="34"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="34"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="B70" s="35"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="35"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="34"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="B71" s="35" t="s">
+      <c r="B71" s="34" t="s">
         <v>364</v>
       </c>
-      <c r="C71" s="35" t="s">
+      <c r="C71" s="34" t="s">
         <v>383</v>
       </c>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="G71" s="35"/>
-      <c r="H71" s="35"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="B72" s="35"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="35"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="35"/>
+      <c r="B72" s="34"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="34"/>
+      <c r="G72" s="34"/>
+      <c r="H72" s="34"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="B73" s="35" t="s">
+      <c r="B73" s="34" t="s">
         <v>563</v>
       </c>
-      <c r="C73" s="35" t="s">
+      <c r="C73" s="34" t="s">
         <v>384</v>
       </c>
-      <c r="D73" s="35"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="H73" s="35"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H73" s="34"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="B74" s="35"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="35"/>
+      <c r="B74" s="34"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="34"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="34"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="B75" s="35" t="s">
+      <c r="B75" s="34" t="s">
         <v>369</v>
       </c>
-      <c r="C75" s="35" t="s">
+      <c r="C75" s="34" t="s">
         <v>385</v>
       </c>
-      <c r="D75" s="35"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="35" t="s">
+      <c r="D75" s="34"/>
+      <c r="E75" s="34"/>
+      <c r="F75" s="34"/>
+      <c r="G75" s="34"/>
+      <c r="H75" s="34" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5249,163 +5544,163 @@
       <c r="A76" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="B76" s="35"/>
-      <c r="C76" s="35"/>
-      <c r="D76" s="35"/>
-      <c r="E76" s="35"/>
-      <c r="F76" s="35"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="35"/>
+      <c r="B76" s="34"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="34"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A77" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="B77" s="35" t="s">
+      <c r="B77" s="34" t="s">
         <v>337</v>
       </c>
-      <c r="C77" s="35" t="s">
+      <c r="C77" s="34" t="s">
         <v>386</v>
       </c>
-      <c r="D77" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E77" s="35"/>
-      <c r="F77" s="35"/>
-      <c r="G77" s="35"/>
-      <c r="H77" s="35"/>
+      <c r="D77" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="34"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="34"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A78" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="B78" s="35"/>
-      <c r="C78" s="35"/>
-      <c r="D78" s="35"/>
-      <c r="E78" s="35"/>
-      <c r="F78" s="35"/>
-      <c r="G78" s="35"/>
-      <c r="H78" s="35"/>
+      <c r="B78" s="34"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="34"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="B79" s="35" t="s">
-        <v>812</v>
-      </c>
-      <c r="C79" s="35" t="s">
+      <c r="B79" s="34" t="s">
+        <v>811</v>
+      </c>
+      <c r="C79" s="34" t="s">
         <v>387</v>
       </c>
-      <c r="D79" s="35"/>
-      <c r="E79" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" s="35"/>
-      <c r="G79" s="35"/>
-      <c r="H79" s="35"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="34"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="34"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A80" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="B80" s="35"/>
-      <c r="C80" s="35"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="35"/>
-      <c r="F80" s="35"/>
-      <c r="G80" s="35"/>
-      <c r="H80" s="35"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A81" s="15" t="s">
         <v>375</v>
       </c>
-      <c r="B81" s="35" t="s">
+      <c r="B81" s="34" t="s">
         <v>649</v>
       </c>
-      <c r="C81" s="35" t="s">
+      <c r="C81" s="34" t="s">
         <v>388</v>
       </c>
-      <c r="D81" s="35"/>
-      <c r="E81" s="35"/>
-      <c r="F81" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="G81" s="35"/>
-      <c r="H81" s="35"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81" s="34"/>
+      <c r="H81" s="34"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A82" s="15" t="s">
         <v>376</v>
       </c>
-      <c r="B82" s="35"/>
-      <c r="C82" s="35"/>
-      <c r="D82" s="35"/>
-      <c r="E82" s="35"/>
-      <c r="F82" s="35"/>
-      <c r="G82" s="35"/>
-      <c r="H82" s="35"/>
+      <c r="B82" s="34"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="34"/>
+      <c r="F82" s="34"/>
+      <c r="G82" s="34"/>
+      <c r="H82" s="34"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A83" s="15" t="s">
         <v>377</v>
       </c>
-      <c r="B83" s="35" t="s">
+      <c r="B83" s="34" t="s">
         <v>673</v>
       </c>
-      <c r="C83" s="35" t="s">
+      <c r="C83" s="34" t="s">
         <v>389</v>
       </c>
-      <c r="D83" s="35"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="35"/>
-      <c r="G83" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="H83" s="35"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="34"/>
+      <c r="F83" s="34"/>
+      <c r="G83" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H83" s="34"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="B84" s="35"/>
-      <c r="C84" s="35"/>
-      <c r="D84" s="35"/>
-      <c r="E84" s="35"/>
-      <c r="F84" s="35"/>
-      <c r="G84" s="35"/>
-      <c r="H84" s="35"/>
+      <c r="B84" s="34"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="34"/>
+      <c r="H84" s="34"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A85" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="B85" s="35" t="s">
+      <c r="B85" s="34" t="s">
         <v>336</v>
       </c>
-      <c r="C85" s="35" t="s">
+      <c r="C85" s="34" t="s">
         <v>608</v>
       </c>
-      <c r="D85" s="35"/>
-      <c r="E85" s="35"/>
-      <c r="F85" s="35"/>
-      <c r="G85" s="35"/>
-      <c r="H85" s="35" t="s">
-        <v>960</v>
+      <c r="D85" s="34"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="34"/>
+      <c r="H85" s="34" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A86" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="B86" s="35"/>
-      <c r="C86" s="35"/>
-      <c r="D86" s="35"/>
-      <c r="E86" s="35"/>
-      <c r="F86" s="35"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="35"/>
+      <c r="B86" s="34"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="34"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="34"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A87" s="15" t="s">
@@ -5453,13 +5748,13 @@
       <c r="A90" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="B90" s="34" t="s">
+      <c r="B90" s="35" t="s">
         <v>416</v>
       </c>
       <c r="C90" s="36" t="s">
         <v>596</v>
       </c>
-      <c r="I90" s="34" t="s">
+      <c r="I90" s="35" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5467,21 +5762,21 @@
       <c r="A91" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="B91" s="34"/>
+      <c r="B91" s="35"/>
       <c r="C91" s="36"/>
-      <c r="I91" s="34"/>
+      <c r="I91" s="35"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A92" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="B92" s="34" t="s">
+      <c r="B92" s="35" t="s">
         <v>417</v>
       </c>
       <c r="C92" s="36" t="s">
         <v>597</v>
       </c>
-      <c r="I92" s="34" t="s">
+      <c r="I92" s="35" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5489,21 +5784,21 @@
       <c r="A93" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="B93" s="34"/>
+      <c r="B93" s="35"/>
       <c r="C93" s="36"/>
-      <c r="I93" s="34"/>
+      <c r="I93" s="35"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A94" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="B94" s="34" t="s">
+      <c r="B94" s="35" t="s">
         <v>418</v>
       </c>
       <c r="C94" s="36" t="s">
         <v>660</v>
       </c>
-      <c r="I94" s="34" t="s">
+      <c r="I94" s="35" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5511,21 +5806,21 @@
       <c r="A95" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="B95" s="34"/>
+      <c r="B95" s="35"/>
       <c r="C95" s="36"/>
-      <c r="I95" s="34"/>
+      <c r="I95" s="35"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A96" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="B96" s="34" t="s">
-        <v>702</v>
+      <c r="B96" s="35" t="s">
+        <v>701</v>
       </c>
       <c r="C96" s="36" t="s">
         <v>409</v>
       </c>
-      <c r="I96" s="34" t="s">
+      <c r="I96" s="35" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5533,9 +5828,9 @@
       <c r="A97" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="B97" s="34"/>
+      <c r="B97" s="35"/>
       <c r="C97" s="36"/>
-      <c r="I97" s="34"/>
+      <c r="I97" s="35"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A98" s="11" t="s">
@@ -5611,13 +5906,13 @@
       <c r="A103" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="B103" s="34" t="s">
+      <c r="B103" s="35" t="s">
         <v>458</v>
       </c>
       <c r="C103" s="36" t="s">
         <v>466</v>
       </c>
-      <c r="D103" s="35" t="s">
+      <c r="D103" s="34" t="s">
         <v>9</v>
       </c>
       <c r="I103" s="33"/>
@@ -5626,21 +5921,21 @@
       <c r="A104" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="B104" s="34"/>
+      <c r="B104" s="35"/>
       <c r="C104" s="36"/>
-      <c r="D104" s="35"/>
+      <c r="D104" s="34"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A105" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="B105" s="34" t="s">
+      <c r="B105" s="35" t="s">
         <v>461</v>
       </c>
       <c r="C105" s="36" t="s">
         <v>467</v>
       </c>
-      <c r="D105" s="35" t="s">
+      <c r="D105" s="34" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5648,21 +5943,21 @@
       <c r="A106" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="B106" s="34"/>
+      <c r="B106" s="35"/>
       <c r="C106" s="36"/>
-      <c r="D106" s="35"/>
+      <c r="D106" s="34"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A107" s="11" t="s">
         <v>463</v>
       </c>
-      <c r="B107" s="34" t="s">
+      <c r="B107" s="35" t="s">
         <v>464</v>
       </c>
       <c r="C107" s="36" t="s">
         <v>468</v>
       </c>
-      <c r="D107" s="35" t="s">
+      <c r="D107" s="34" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5670,21 +5965,21 @@
       <c r="A108" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="B108" s="34"/>
+      <c r="B108" s="35"/>
       <c r="C108" s="36"/>
-      <c r="D108" s="35"/>
+      <c r="D108" s="34"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A109" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="B109" s="34" t="s">
+      <c r="B109" s="35" t="s">
         <v>448</v>
       </c>
       <c r="C109" s="36" t="s">
         <v>454</v>
       </c>
-      <c r="E109" s="35" t="s">
+      <c r="E109" s="34" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5692,21 +5987,21 @@
       <c r="A110" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="B110" s="34"/>
+      <c r="B110" s="35"/>
       <c r="C110" s="36"/>
-      <c r="E110" s="35"/>
+      <c r="E110" s="34"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A111" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="B111" s="34" t="s">
-        <v>752</v>
+      <c r="B111" s="35" t="s">
+        <v>751</v>
       </c>
       <c r="C111" s="36" t="s">
         <v>455</v>
       </c>
-      <c r="E111" s="35" t="s">
+      <c r="E111" s="34" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5714,21 +6009,21 @@
       <c r="A112" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="B112" s="34"/>
+      <c r="B112" s="35"/>
       <c r="C112" s="36"/>
-      <c r="E112" s="35"/>
+      <c r="E112" s="34"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A113" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="B113" s="34" t="s">
-        <v>751</v>
+      <c r="B113" s="35" t="s">
+        <v>750</v>
       </c>
       <c r="C113" s="36" t="s">
         <v>456</v>
       </c>
-      <c r="E113" s="35" t="s">
+      <c r="E113" s="34" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5736,21 +6031,21 @@
       <c r="A114" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="B114" s="34"/>
+      <c r="B114" s="35"/>
       <c r="C114" s="36"/>
-      <c r="E114" s="35"/>
+      <c r="E114" s="34"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A115" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="B115" s="34" t="s">
+      <c r="B115" s="35" t="s">
         <v>438</v>
       </c>
       <c r="C115" s="36" t="s">
         <v>444</v>
       </c>
-      <c r="F115" s="35" t="s">
+      <c r="F115" s="34" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5758,21 +6053,21 @@
       <c r="A116" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="B116" s="34"/>
+      <c r="B116" s="35"/>
       <c r="C116" s="36"/>
-      <c r="F116" s="35"/>
+      <c r="F116" s="34"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A117" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="B117" s="34" t="s">
+      <c r="B117" s="35" t="s">
         <v>439</v>
       </c>
       <c r="C117" s="36" t="s">
         <v>445</v>
       </c>
-      <c r="F117" s="35" t="s">
+      <c r="F117" s="34" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5780,21 +6075,21 @@
       <c r="A118" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="B118" s="34"/>
+      <c r="B118" s="35"/>
       <c r="C118" s="36"/>
-      <c r="F118" s="35"/>
+      <c r="F118" s="34"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A119" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="B119" s="34" t="s">
+      <c r="B119" s="35" t="s">
         <v>440</v>
       </c>
       <c r="C119" s="36" t="s">
         <v>446</v>
       </c>
-      <c r="F119" s="35" t="s">
+      <c r="F119" s="34" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5802,21 +6097,21 @@
       <c r="A120" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="B120" s="34"/>
+      <c r="B120" s="35"/>
       <c r="C120" s="36"/>
-      <c r="F120" s="35"/>
+      <c r="F120" s="34"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A121" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="B121" s="34" t="s">
+      <c r="B121" s="35" t="s">
         <v>434</v>
       </c>
       <c r="C121" s="36" t="s">
         <v>441</v>
       </c>
-      <c r="G121" s="35" t="s">
+      <c r="G121" s="34" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5824,21 +6119,21 @@
       <c r="A122" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="B122" s="34"/>
+      <c r="B122" s="35"/>
       <c r="C122" s="36"/>
-      <c r="G122" s="35"/>
+      <c r="G122" s="34"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A123" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="B123" s="34" t="s">
+      <c r="B123" s="35" t="s">
         <v>436</v>
       </c>
       <c r="C123" s="36" t="s">
         <v>442</v>
       </c>
-      <c r="G123" s="35" t="s">
+      <c r="G123" s="34" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5846,21 +6141,21 @@
       <c r="A124" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="B124" s="34"/>
+      <c r="B124" s="35"/>
       <c r="C124" s="36"/>
-      <c r="G124" s="35"/>
+      <c r="G124" s="34"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A125" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="B125" s="34" t="s">
+      <c r="B125" s="35" t="s">
         <v>437</v>
       </c>
       <c r="C125" s="36" t="s">
         <v>443</v>
       </c>
-      <c r="G125" s="35" t="s">
+      <c r="G125" s="34" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5868,21 +6163,21 @@
       <c r="A126" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="B126" s="34"/>
+      <c r="B126" s="35"/>
       <c r="C126" s="36"/>
-      <c r="G126" s="35"/>
+      <c r="G126" s="34"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A127" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="B127" s="34" t="s">
+      <c r="B127" s="35" t="s">
         <v>470</v>
       </c>
       <c r="C127" s="36" t="s">
         <v>478</v>
       </c>
-      <c r="H127" s="35" t="s">
+      <c r="H127" s="34" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5890,21 +6185,21 @@
       <c r="A128" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="B128" s="34"/>
+      <c r="B128" s="35"/>
       <c r="C128" s="36"/>
-      <c r="H128" s="35"/>
+      <c r="H128" s="34"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A129" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="B129" s="34" t="s">
+      <c r="B129" s="35" t="s">
         <v>473</v>
       </c>
       <c r="C129" s="36" t="s">
         <v>479</v>
       </c>
-      <c r="H129" s="35" t="s">
+      <c r="H129" s="34" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5912,21 +6207,21 @@
       <c r="A130" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="B130" s="34"/>
+      <c r="B130" s="35"/>
       <c r="C130" s="36"/>
-      <c r="H130" s="35"/>
+      <c r="H130" s="34"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A131" s="11" t="s">
         <v>475</v>
       </c>
-      <c r="B131" s="34" t="s">
+      <c r="B131" s="35" t="s">
         <v>476</v>
       </c>
       <c r="C131" s="36" t="s">
         <v>480</v>
       </c>
-      <c r="H131" s="35" t="s">
+      <c r="H131" s="34" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5934,208 +6229,61 @@
       <c r="A132" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="B132" s="34"/>
+      <c r="B132" s="35"/>
       <c r="C132" s="36"/>
-      <c r="H132" s="35"/>
+      <c r="H132" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="267">
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="H37:H39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="H43:H45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="H46:H48"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="F43:F45"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="H49:H51"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="G52:G54"/>
-    <mergeCell ref="H52:H54"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="F49:F51"/>
-    <mergeCell ref="G49:G51"/>
-    <mergeCell ref="H55:H57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="F58:F60"/>
-    <mergeCell ref="G58:G60"/>
-    <mergeCell ref="H58:H60"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="E55:E57"/>
-    <mergeCell ref="F55:F57"/>
-    <mergeCell ref="G55:G57"/>
-    <mergeCell ref="H61:H63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="F64:F66"/>
-    <mergeCell ref="G64:G66"/>
-    <mergeCell ref="H64:H66"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="I90:I91"/>
+    <mergeCell ref="I92:I93"/>
+    <mergeCell ref="I94:I95"/>
+    <mergeCell ref="I96:I97"/>
+    <mergeCell ref="H127:H128"/>
+    <mergeCell ref="H129:H130"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="G125:G126"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
     <mergeCell ref="B90:B91"/>
     <mergeCell ref="B92:B93"/>
     <mergeCell ref="B94:B95"/>
@@ -6158,55 +6306,202 @@
     <mergeCell ref="E83:E84"/>
     <mergeCell ref="F83:F84"/>
     <mergeCell ref="G83:G84"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="I90:I91"/>
-    <mergeCell ref="I92:I93"/>
-    <mergeCell ref="I94:I95"/>
-    <mergeCell ref="I96:I97"/>
-    <mergeCell ref="H127:H128"/>
-    <mergeCell ref="H129:H130"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="G123:G124"/>
-    <mergeCell ref="G125:G126"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="H61:H63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="F64:F66"/>
+    <mergeCell ref="G64:G66"/>
+    <mergeCell ref="H64:H66"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="H55:H57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="F58:F60"/>
+    <mergeCell ref="G58:G60"/>
+    <mergeCell ref="H58:H60"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="F55:F57"/>
+    <mergeCell ref="G55:G57"/>
+    <mergeCell ref="H49:H51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="H52:H54"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="G49:G51"/>
+    <mergeCell ref="H43:H45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="H46:H48"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6218,8 +6513,8 @@
   <dimension ref="A1:H113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -6305,7 +6600,7 @@
     </row>
     <row r="6" spans="1:8" s="5" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>38</v>
@@ -6377,7 +6672,7 @@
     </row>
     <row r="11" spans="1:8" s="5" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>675</v>
+        <v>972</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>674</v>
@@ -6407,7 +6702,7 @@
     </row>
     <row r="13" spans="1:8" s="5" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>46</v>
@@ -6452,13 +6747,13 @@
     </row>
     <row r="16" spans="1:8" s="5" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>150</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="5" t="s">
@@ -6467,7 +6762,7 @@
     </row>
     <row r="17" spans="1:8" s="5" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>50</v>
@@ -7359,7 +7654,7 @@
         <v>217</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>10</v>
@@ -7832,7 +8127,7 @@
         <v>248</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>40</v>
@@ -7868,11 +8163,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K117"/>
+  <dimension ref="A1:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:B115"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -7896,7 +8191,7 @@
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -7931,7 +8226,7 @@
         <v>4</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -8408,7 +8703,7 @@
         <v>667</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I27" s="24" t="s">
         <v>9</v>
@@ -8452,10 +8747,10 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>666</v>
@@ -8476,13 +8771,13 @@
         <v>500</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G31" s="24" t="s">
         <v>9</v>
@@ -8496,10 +8791,10 @@
         <v>501</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E32" s="36"/>
       <c r="G32" s="24" t="s">
@@ -8514,10 +8809,10 @@
         <v>502</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E33" s="36"/>
       <c r="K33" s="24" t="s">
@@ -8526,16 +8821,16 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E34" s="36"/>
       <c r="G34" s="24" t="s">
@@ -8544,19 +8839,19 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B35" s="16" t="s">
         <v>503</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G35" s="24" t="s">
         <v>9</v>
@@ -8570,10 +8865,10 @@
         <v>504</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E36" s="36"/>
       <c r="G36" s="24" t="s">
@@ -8582,16 +8877,16 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>505</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E37" s="36"/>
       <c r="K37" s="24" t="s">
@@ -8600,16 +8895,16 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B38" s="16" t="s">
         <v>506</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E38" s="36"/>
       <c r="G38" s="24" t="s">
@@ -8624,13 +8919,13 @@
         <v>507</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E39" s="36" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H39" s="24" t="s">
         <v>9</v>
@@ -8644,7 +8939,7 @@
         <v>508</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D40" s="17" t="s">
         <v>668</v>
@@ -8656,16 +8951,16 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B41" s="16" t="s">
         <v>509</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E41" s="36"/>
       <c r="H41" s="24" t="s">
@@ -8674,19 +8969,19 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B42" s="16" t="s">
         <v>510</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E42" s="36" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="J42" s="24" t="s">
         <v>9</v>
@@ -8694,16 +8989,16 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B43" s="16" t="s">
         <v>511</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E43" s="36"/>
       <c r="J43" s="24" t="s">
@@ -8712,16 +9007,16 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="29" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B44" s="16" t="s">
         <v>512</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E44" s="36"/>
       <c r="K44" s="24" t="s">
@@ -8730,16 +9025,16 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E45" s="36"/>
       <c r="J45" s="24" t="s">
@@ -8751,16 +9046,16 @@
         <v>652</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C46" s="16" t="s">
         <v>643</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E46" s="36" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H46" s="24" t="s">
         <v>9</v>
@@ -8768,16 +9063,16 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C47" s="16" t="s">
         <v>642</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E47" s="36"/>
       <c r="H47" s="24" t="s">
@@ -8786,16 +9081,16 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E48" s="36"/>
       <c r="K48" s="24" t="s">
@@ -8810,10 +9105,10 @@
         <v>513</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E49" s="36"/>
       <c r="K49" s="24" t="s">
@@ -8822,19 +9117,19 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="25" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C50" s="28" t="s">
         <v>627</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E50" s="36" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G50" s="24" t="s">
         <v>9</v>
@@ -8842,16 +9137,16 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E51" s="36"/>
       <c r="G51" s="24" t="s">
@@ -8863,13 +9158,13 @@
         <v>662</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E52" s="36"/>
       <c r="K52" s="24" t="s">
@@ -8878,16 +9173,16 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="25" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E53" s="36"/>
       <c r="G53" s="24" t="s">
@@ -8896,19 +9191,19 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="25" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B54" s="30" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E54" s="36" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G54" s="24" t="s">
         <v>9</v>
@@ -8916,16 +9211,16 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B55" s="30" t="s">
         <v>514</v>
       </c>
       <c r="C55" s="30" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D55" s="30" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E55" s="36"/>
       <c r="G55" s="24" t="s">
@@ -8934,16 +9229,16 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B56" s="30" t="s">
         <v>515</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E56" s="36"/>
       <c r="G56" s="24" t="s">
@@ -8952,16 +9247,16 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B57" s="30" t="s">
         <v>516</v>
       </c>
       <c r="C57" s="30" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E57" s="36"/>
       <c r="G57" s="24" t="s">
@@ -8976,13 +9271,13 @@
         <v>517</v>
       </c>
       <c r="C58" s="30" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E58" s="36" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G58" s="24" t="s">
         <v>9</v>
@@ -8990,16 +9285,16 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C59" s="30" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E59" s="36"/>
       <c r="G59" s="24" t="s">
@@ -9014,13 +9309,13 @@
         <v>518</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E60" s="36" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H60" s="24" t="s">
         <v>9</v>
@@ -9028,16 +9323,16 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="25" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>519</v>
       </c>
       <c r="C61" s="30" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E61" s="36"/>
       <c r="H61" s="24" t="s">
@@ -9046,16 +9341,16 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>520</v>
       </c>
       <c r="C62" s="30" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E62" s="36"/>
       <c r="H62" s="24" t="s">
@@ -9064,16 +9359,16 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C63" s="31" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E63" s="36"/>
       <c r="K63" s="24" t="s">
@@ -9082,19 +9377,19 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E64" s="36" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J64" s="24" t="s">
         <v>9</v>
@@ -9102,16 +9397,16 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>521</v>
       </c>
       <c r="C65" s="30" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E65" s="36"/>
       <c r="J65" s="24" t="s">
@@ -9126,13 +9421,13 @@
         <v>522</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E66" s="36" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H66" s="24" t="s">
         <v>9</v>
@@ -9140,16 +9435,16 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="25" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>523</v>
       </c>
       <c r="C67" s="30" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E67" s="36"/>
       <c r="H67" s="24"/>
@@ -9159,7 +9454,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="25" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>524</v>
@@ -9168,7 +9463,7 @@
         <v>642</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E68" s="36"/>
       <c r="H68" s="24" t="s">
@@ -9177,16 +9472,16 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>525</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E69" s="36"/>
       <c r="K69" s="24" t="s">
@@ -9195,19 +9490,19 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>526</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E70" s="36" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G70" s="24" t="s">
         <v>9</v>
@@ -9215,16 +9510,16 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="25" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>527</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E71" s="36"/>
       <c r="G71" s="24" t="s">
@@ -9233,16 +9528,16 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>528</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E72" s="36"/>
       <c r="G72" s="24" t="s">
@@ -9251,19 +9546,19 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>529</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E73" s="36" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F73" s="24" t="s">
         <v>9</v>
@@ -9277,10 +9572,10 @@
         <v>530</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D74" s="23" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E74" s="36"/>
       <c r="F74" s="24" t="s">
@@ -9289,16 +9584,16 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="32" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C75" s="31" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E75" s="36"/>
       <c r="F75" s="24" t="s">
@@ -9307,16 +9602,16 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="32" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>531</v>
       </c>
       <c r="C76" s="30" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E76" s="36"/>
       <c r="K76" s="24" t="s">
@@ -9325,19 +9620,19 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="32" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C77" s="31" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E77" s="36" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="K77" s="24" t="s">
         <v>9</v>
@@ -9345,16 +9640,16 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>532</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E78" s="36"/>
       <c r="F78" s="24" t="s">
@@ -9363,16 +9658,16 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>533</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D79" s="23" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E79" s="36"/>
       <c r="K79" s="24" t="s">
@@ -9381,16 +9676,16 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="32" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E80" s="36"/>
       <c r="F80" s="24" t="s">
@@ -9399,19 +9694,19 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>534</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E81" s="36" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="I81" s="24" t="s">
         <v>9</v>
@@ -9419,16 +9714,16 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E82" s="36"/>
       <c r="I82" s="24" t="s">
@@ -9437,19 +9732,19 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>536</v>
       </c>
       <c r="C83" s="30" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E83" s="36" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="I83" s="24" t="s">
         <v>9</v>
@@ -9463,7 +9758,7 @@
         <v>537</v>
       </c>
       <c r="C84" s="31" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D84" s="17" t="s">
         <v>667</v>
@@ -9475,13 +9770,13 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="25" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>538</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D85" s="17" t="s">
         <v>669</v>
@@ -9499,13 +9794,13 @@
         <v>539</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E86" s="36" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I86" s="24" t="s">
         <v>9</v>
@@ -9513,16 +9808,16 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="32" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E87" s="36"/>
       <c r="I87" s="24" t="s">
@@ -9531,16 +9826,16 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="32" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>540</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E88" s="36"/>
       <c r="I88" s="24" t="s">
@@ -9549,16 +9844,16 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>541</v>
       </c>
       <c r="C89" s="31" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E89" s="36"/>
       <c r="K89" s="24" t="s">
@@ -9567,19 +9862,19 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>542</v>
       </c>
       <c r="C90" s="31" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E90" s="36" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="I90" s="24" t="s">
         <v>9</v>
@@ -9593,10 +9888,10 @@
         <v>543</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E91" s="36"/>
       <c r="I91" s="24" t="s">
@@ -9605,16 +9900,16 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>544</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E92" s="36"/>
       <c r="K92" s="24" t="s">
@@ -9623,16 +9918,16 @@
     </row>
     <row r="93" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A93" s="32" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C93" s="30" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E93" s="36"/>
       <c r="I93" s="24" t="s">
@@ -9641,19 +9936,19 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>545</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E94" s="36" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I94" s="24" t="s">
         <v>9</v>
@@ -9661,16 +9956,16 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="32" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E95" s="36"/>
       <c r="I95" s="24" t="s">
@@ -9679,16 +9974,16 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>546</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E96" s="36"/>
       <c r="I96" s="24" t="s">
@@ -9703,13 +9998,13 @@
         <v>547</v>
       </c>
       <c r="C97" s="30" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E97" s="36" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I97" s="24" t="s">
         <v>9</v>
@@ -9717,16 +10012,16 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="25" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>548</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D98" s="23" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E98" s="36"/>
       <c r="K98" s="24" t="s">
@@ -9735,16 +10030,16 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="32" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E99" s="36"/>
       <c r="K99" s="24" t="s">
@@ -9753,19 +10048,19 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>549</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E100" s="36" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I100" s="24" t="s">
         <v>9</v>
@@ -9773,16 +10068,16 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="32" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E101" s="36"/>
       <c r="I101" s="24" t="s">
@@ -9791,19 +10086,19 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="25" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E102" s="36" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G102" s="24" t="s">
         <v>9</v>
@@ -9811,16 +10106,16 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="32" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>550</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E103" s="36"/>
       <c r="G103" s="24" t="s">
@@ -9829,16 +10124,16 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="32" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>551</v>
       </c>
       <c r="C104" s="31" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E104" s="36"/>
       <c r="G104" s="24" t="s">
@@ -9847,16 +10142,16 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="32" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>552</v>
       </c>
       <c r="C105" s="31" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E105" s="36"/>
       <c r="K105" s="24" t="s">
@@ -9865,19 +10160,19 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="25" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C106" s="31" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E106" s="36" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I106" s="24" t="s">
         <v>9</v>
@@ -9885,16 +10180,16 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="32" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>553</v>
       </c>
       <c r="C107" s="31" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E107" s="36"/>
       <c r="I107" s="24" t="s">
@@ -9903,16 +10198,16 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="32" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>554</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E108" s="36"/>
       <c r="I108" s="24" t="s">
@@ -9921,16 +10216,16 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A109" s="32" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>555</v>
       </c>
       <c r="C109" s="31" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E109" s="36"/>
       <c r="K109" s="5" t="s">
@@ -9939,16 +10234,16 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="32" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>556</v>
       </c>
       <c r="C110" s="31" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E110" s="36"/>
       <c r="I110" s="24" t="s">
@@ -9957,19 +10252,19 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="32" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="B111" s="30" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>938</v>
+        <v>960</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>941</v>
+        <v>959</v>
       </c>
       <c r="E111" s="36" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="I111" s="24" t="s">
         <v>9</v>
@@ -9977,16 +10272,16 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="32" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="B112" s="30" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="C112" s="5" t="s">
+        <v>937</v>
+      </c>
+      <c r="D112" s="5" t="s">
         <v>939</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>942</v>
       </c>
       <c r="E112" s="36"/>
       <c r="I112" s="24" t="s">
@@ -9995,16 +10290,16 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="32" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="B113" s="30" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="C113" s="5" t="s">
+        <v>938</v>
+      </c>
+      <c r="D113" s="5" t="s">
         <v>940</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>943</v>
       </c>
       <c r="E113" s="36"/>
       <c r="K113" s="24" t="s">
@@ -10013,19 +10308,19 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="32" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="B114" s="30" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D114" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="E114" s="36" t="s">
         <v>944</v>
-      </c>
-      <c r="E114" s="36" t="s">
-        <v>947</v>
       </c>
       <c r="F114" s="24" t="s">
         <v>9</v>
@@ -10033,27 +10328,325 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="32" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B115" s="30" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="E115" s="36"/>
       <c r="F115" s="24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B117" s="30"/>
+    <row r="116" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A116" s="38" t="s">
+        <v>801</v>
+      </c>
+      <c r="B116" s="39" t="s">
+        <v>961</v>
+      </c>
+      <c r="C116" s="40" t="s">
+        <v>962</v>
+      </c>
+      <c r="D116" s="41" t="s">
+        <v>963</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="I116" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>965</v>
+      </c>
+      <c r="C117" s="30" t="s">
+        <v>966</v>
+      </c>
+      <c r="D117" s="30" t="s">
+        <v>974</v>
+      </c>
+      <c r="E117" s="36" t="s">
+        <v>977</v>
+      </c>
+      <c r="I117" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" s="9" t="s">
+        <v>970</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>969</v>
+      </c>
+      <c r="C118" s="30" t="s">
+        <v>967</v>
+      </c>
+      <c r="D118" s="30" t="s">
+        <v>975</v>
+      </c>
+      <c r="E118" s="36"/>
+      <c r="I118" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" s="7" t="s">
+        <v>973</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>971</v>
+      </c>
+      <c r="C119" s="30" t="s">
+        <v>968</v>
+      </c>
+      <c r="D119" s="30" t="s">
+        <v>976</v>
+      </c>
+      <c r="E119" s="36"/>
+      <c r="I119" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="C120" s="30" t="s">
+        <v>981</v>
+      </c>
+      <c r="D120" s="30" t="s">
+        <v>985</v>
+      </c>
+      <c r="E120" s="36" t="s">
+        <v>989</v>
+      </c>
+      <c r="I120" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="7" t="s">
+        <v>990</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="C121" s="30" t="s">
+        <v>982</v>
+      </c>
+      <c r="D121" s="30" t="s">
+        <v>986</v>
+      </c>
+      <c r="E121" s="36"/>
+      <c r="K121" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="9" t="s">
+        <v>994</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>983</v>
+      </c>
+      <c r="D122" s="30" t="s">
+        <v>987</v>
+      </c>
+      <c r="E122" s="36"/>
+      <c r="I122" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" s="42" t="s">
+        <v>992</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="C123" s="30" t="s">
+        <v>984</v>
+      </c>
+      <c r="D123" s="30" t="s">
+        <v>988</v>
+      </c>
+      <c r="E123" s="36"/>
+      <c r="K123" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="38" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>996</v>
+      </c>
+      <c r="D124" s="30" t="s">
+        <v>999</v>
+      </c>
+      <c r="E124" s="36" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J124" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" s="9" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="D125" s="30" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E125" s="36"/>
+      <c r="J125" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" s="9" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>998</v>
+      </c>
+      <c r="D126" s="30" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E126" s="36"/>
+      <c r="J126" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="25" t="s">
+        <v>652</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D127" s="30" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E127" s="36" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H127" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" s="9" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D128" s="30" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E128" s="36"/>
+      <c r="K128" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D129" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E129" s="36"/>
+      <c r="H129" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" s="9" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D130" s="30" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E130" s="36"/>
+      <c r="H130" s="24" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="37">
+    <mergeCell ref="E117:E119"/>
+    <mergeCell ref="E120:E123"/>
+    <mergeCell ref="E124:E126"/>
+    <mergeCell ref="E127:E130"/>
+    <mergeCell ref="E94:E96"/>
+    <mergeCell ref="E97:E99"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="E102:E105"/>
+    <mergeCell ref="E106:E110"/>
+    <mergeCell ref="E90:E93"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="E60:E63"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E66:E69"/>
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="E73:E76"/>
+    <mergeCell ref="E77:E80"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="E86:E89"/>
     <mergeCell ref="E3:E5"/>
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="E10:E12"/>
@@ -10070,23 +10663,6 @@
     <mergeCell ref="E39:E41"/>
     <mergeCell ref="E42:E45"/>
     <mergeCell ref="E46:E49"/>
-    <mergeCell ref="E90:E93"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="E60:E63"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="E70:E72"/>
-    <mergeCell ref="E73:E76"/>
-    <mergeCell ref="E77:E80"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="E86:E89"/>
-    <mergeCell ref="E94:E96"/>
-    <mergeCell ref="E97:E99"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="E102:E105"/>
-    <mergeCell ref="E106:E110"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
